--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_17.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-14539.9821345113</v>
+        <v>-18679.68854846847</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.8925167</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11577113.2032437</v>
+        <v>11574163.30629161</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>142.2889526028264</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>120.8307993183878</v>
       </c>
     </row>
     <row r="3">
@@ -741,16 +741,16 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>56.86896541823708</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
@@ -786,7 +786,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>175.2139736830806</v>
@@ -795,7 +795,7 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
-        <v>220.3146016126436</v>
+        <v>200.8543701706049</v>
       </c>
       <c r="W3" t="n">
         <v>227.816073408046</v>
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>112.8381367815073</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>219.9988096761396</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>329.3218978239852</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>9.031127956876844</v>
@@ -944,13 +944,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>127.6263223669148</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -987,10 +987,10 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>58.02535283748631</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>48.89338144820752</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968102</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1054,7 +1054,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>57.87860001854902</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>83.13117052363654</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>249.5978369458043</v>
       </c>
       <c r="F8" t="n">
-        <v>308.888837192723</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>93.52529077486058</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>47.4221403979458</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>0.004793142211894974</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E11" t="n">
-        <v>327.479377239889</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>77.40180093749096</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344424</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372792</v>
+        <v>65.87543334372785</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362804</v>
+        <v>93.77010711362797</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750155</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087849</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.447489593873</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -1528,25 +1528,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993877</v>
+        <v>97.4247543599387</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177843</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465761</v>
+        <v>82.92491162465754</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442481</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>41.73537706365072</v>
+        <v>82.84545313338899</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456099</v>
+        <v>60.68516871456092</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901691</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457862</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>184.8446259025197</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534023</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
         <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E14" t="n">
-        <v>327.479377239889</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372791</v>
+        <v>65.87543334372785</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>24.52005715310973</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087849</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.447489593873</v>
+        <v>267.5911161411919</v>
       </c>
     </row>
     <row r="15">
@@ -1765,25 +1765,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.4247543599387</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177843</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465754</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442487</v>
+        <v>84.67436304442481</v>
       </c>
       <c r="G16" t="n">
-        <v>59.28473649829495</v>
+        <v>6.424397833273602</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456097</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,13 +1816,13 @@
         <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457862</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
@@ -1831,7 +1831,7 @@
         <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799149</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
         <v>282.3655247697376</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.929075365813</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
         <v>282.3655247697376</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
         <v>236.929075365811</v>
@@ -2147,7 +2147,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2330,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2378,10 +2378,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414335</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404347</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380448</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542119</v>
+        <v>283.7098784815728</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954279</v>
+        <v>268.8067977227888</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619108</v>
       </c>
       <c r="F32" t="n">
-        <v>306.389036785251</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568058</v>
+        <v>296.2512081841667</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291032</v>
+        <v>208.0623001564641</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838881</v>
+        <v>24.1738259657497</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828894</v>
+        <v>52.06849973564982</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161065</v>
+        <v>108.4856766434674</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.9058214308067</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813244</v>
+        <v>254.5091249086853</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162027</v>
+        <v>272.7781592435636</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158948</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431726</v>
+        <v>70.57601873167815</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459967</v>
+        <v>55.72314698196055</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643939</v>
+        <v>41.29686219380028</v>
       </c>
       <c r="E34" t="n">
-        <v>47.6667667193185</v>
+        <v>41.22330424667939</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908577</v>
+        <v>42.97275566644666</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147791</v>
+        <v>53.79159358883879</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804995</v>
+        <v>41.14384575541084</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922188</v>
+        <v>18.98356133658277</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.3255221736778</v>
+        <v>9.882059701038685</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920511</v>
+        <v>88.008003206566</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.5819415407381</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678079</v>
       </c>
       <c r="V34" t="n">
-        <v>156.983094427313</v>
+        <v>150.5396319546739</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480631</v>
+        <v>167.717178275424</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947757</v>
+        <v>118.9595992221366</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.101020798813</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386987</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799147</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190366</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F35" t="n">
-        <v>282.3655247697378</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412926</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H35" t="n">
-        <v>190.48225061359</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875578</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.4884501927757</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059325</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U35" t="n">
-        <v>122.8352329541631</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.9290753658112</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006895</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880403</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908643</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092616</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380527</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357254</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596467</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253672</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708645</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369188</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T37" t="n">
-        <v>103.001891997864</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249338</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117998</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325499</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792625</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593883</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386987</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799147</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
-        <v>268.1977203190366</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F38" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.48225061359</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.59377642287555</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277567</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059322</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
-        <v>122.8352329541631</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006895</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.995969188804</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.1430974390864</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092613</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380524</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357251</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596464</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253669</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708617</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369185</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U40" t="n">
-        <v>152.2244345249338</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325499</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792625</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.5209712559388</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C41" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
         <v>251.2267481799146</v>
@@ -3749,7 +3749,7 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F41" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
         <v>278.6711586412925</v>
@@ -3758,7 +3758,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
         <v>236.9290753658111</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357245</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253663</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I43" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T43" t="n">
         <v>103.0018919978639</v>
@@ -3964,7 +3964,7 @@
         <v>101.3795496792624</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
         <v>251.2267481799146</v>
@@ -3986,16 +3986,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I46" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1017.279068127104</v>
+        <v>791.6030871314629</v>
       </c>
       <c r="C2" t="n">
-        <v>1017.279068127104</v>
+        <v>791.6030871314629</v>
       </c>
       <c r="D2" t="n">
-        <v>1017.279068127104</v>
+        <v>791.6030871314629</v>
       </c>
       <c r="E2" t="n">
-        <v>1017.279068127104</v>
+        <v>791.6030871314629</v>
       </c>
       <c r="F2" t="n">
-        <v>600.3846296570815</v>
+        <v>778.7490527018447</v>
       </c>
       <c r="G2" t="n">
-        <v>187.2218741450847</v>
+        <v>365.5862971898478</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>188.1454323035831</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L2" t="n">
-        <v>681.4657240221119</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M2" t="n">
-        <v>1219.724509032204</v>
+        <v>1552.058346020845</v>
       </c>
       <c r="N2" t="n">
-        <v>1641.749917465278</v>
+        <v>2065.661024630533</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465278</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596799</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="S2" t="n">
-        <v>2008.269414678799</v>
+        <v>1908.648782757972</v>
       </c>
       <c r="T2" t="n">
-        <v>1784.768812238215</v>
+        <v>1685.148180317388</v>
       </c>
       <c r="U2" t="n">
-        <v>1784.768812238215</v>
+        <v>1685.148180317388</v>
       </c>
       <c r="V2" t="n">
-        <v>1784.768812238215</v>
+        <v>1685.148180317388</v>
       </c>
       <c r="W2" t="n">
-        <v>1413.769777206503</v>
+        <v>1314.149145285676</v>
       </c>
       <c r="X2" t="n">
-        <v>1413.769777206503</v>
+        <v>1314.149145285676</v>
       </c>
       <c r="Y2" t="n">
-        <v>1017.279068127104</v>
+        <v>1192.09783284286</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021429</v>
+        <v>710.7802625178498</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622351</v>
+        <v>560.126032077942</v>
       </c>
       <c r="D3" t="n">
-        <v>375.0702200837154</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E3" t="n">
-        <v>238.6237291946031</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>238.6237291946031</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284337</v>
+        <v>90.89050074442683</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767088</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="L3" t="n">
-        <v>476.3497876767088</v>
+        <v>525.0693326546517</v>
       </c>
       <c r="M3" t="n">
-        <v>996.5377244563673</v>
+        <v>1038.67201126434</v>
       </c>
       <c r="N3" t="n">
-        <v>1534.79650946646</v>
+        <v>1552.274689874028</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.79650946646</v>
+        <v>2065.877368483716</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182857</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635812</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535681</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734589</v>
+        <v>1874.261482913894</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413231</v>
+        <v>1664.198339592536</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784298</v>
+        <v>1461.315137400005</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917585</v>
+        <v>1231.197891533292</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675969</v>
+        <v>1041.890813883304</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431042</v>
+        <v>862.5765969588111</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>944.9426819363074</v>
+        <v>535.5212307317012</v>
       </c>
       <c r="C4" t="n">
-        <v>830.964765995391</v>
+        <v>365.3161127976904</v>
       </c>
       <c r="D4" t="n">
-        <v>675.3316528979058</v>
+        <v>365.3161127976904</v>
       </c>
       <c r="E4" t="n">
-        <v>519.7728407571083</v>
+        <v>209.7573006568929</v>
       </c>
       <c r="F4" t="n">
-        <v>362.4469059700812</v>
+        <v>209.7573006568929</v>
       </c>
       <c r="G4" t="n">
-        <v>362.4469059700812</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="H4" t="n">
-        <v>206.9683549315751</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="I4" t="n">
-        <v>73.87392956865301</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="X4" t="n">
-        <v>944.9426819363074</v>
+        <v>720.7292494230024</v>
       </c>
       <c r="Y4" t="n">
-        <v>944.9426819363074</v>
+        <v>720.7292494230024</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1173.291046173525</v>
+        <v>466.0631575410048</v>
       </c>
       <c r="C5" t="n">
-        <v>1173.291046173525</v>
+        <v>466.0631575410048</v>
       </c>
       <c r="D5" t="n">
-        <v>787.8499173901923</v>
+        <v>466.0631575410048</v>
       </c>
       <c r="E5" t="n">
-        <v>385.2663925067368</v>
+        <v>63.47963265754937</v>
       </c>
       <c r="F5" t="n">
-        <v>52.61801086634773</v>
+        <v>50.62559822793119</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.448080049574</v>
+        <v>74.88432743274643</v>
       </c>
       <c r="M5" t="n">
-        <v>1578.706865059666</v>
+        <v>588.4870060424344</v>
       </c>
       <c r="N5" t="n">
-        <v>1989.937409596799</v>
+        <v>1102.089684652122</v>
       </c>
       <c r="O5" t="n">
-        <v>1989.937409596799</v>
+        <v>1542.129285544451</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596799</v>
+        <v>1890.316777675973</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.79005602327</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.27650096432</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="T5" t="n">
-        <v>1970.27650096432</v>
+        <v>1908.253946964145</v>
       </c>
       <c r="U5" t="n">
-        <v>1970.27650096432</v>
+        <v>1652.501217398744</v>
       </c>
       <c r="V5" t="n">
-        <v>1970.27650096432</v>
+        <v>1652.501217398744</v>
       </c>
       <c r="W5" t="n">
-        <v>1970.27650096432</v>
+        <v>1652.501217398744</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.27650096432</v>
+        <v>1263.048612331801</v>
       </c>
       <c r="Y5" t="n">
-        <v>1573.785791884922</v>
+        <v>866.5579032524017</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>691.1234630814472</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>540.4692326415394</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>410.3802652630197</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>273.9337743739075</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>149.5019682570393</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>90.89050074442683</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284337</v>
+        <v>90.89050074442683</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>361.2423928185648</v>
       </c>
       <c r="L6" t="n">
-        <v>714.3825334202767</v>
+        <v>642.3356118811478</v>
       </c>
       <c r="M6" t="n">
-        <v>714.3825334202767</v>
+        <v>642.3356118811478</v>
       </c>
       <c r="N6" t="n">
-        <v>1252.641318430369</v>
+        <v>1155.938290490836</v>
       </c>
       <c r="O6" t="n">
-        <v>1769.16160102135</v>
+        <v>1669.540969100524</v>
       </c>
       <c r="P6" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737748</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737748</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>1874.261482913894</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1664.198339592536</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1441.658337963603</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1211.54109209689</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1022.234014446901</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>842.9197975224085</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>244.0790475026638</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="C7" t="n">
-        <v>73.87392956865301</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="D7" t="n">
-        <v>73.87392956865301</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="E7" t="n">
-        <v>73.87392956865301</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="F7" t="n">
-        <v>73.87392956865301</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="G7" t="n">
-        <v>73.87392956865301</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="H7" t="n">
-        <v>73.87392956865301</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="I7" t="n">
-        <v>73.87392956865301</v>
+        <v>71.88151693023647</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="V7" t="n">
-        <v>944.9426819363074</v>
+        <v>474.1548403012645</v>
       </c>
       <c r="W7" t="n">
-        <v>886.4794495943387</v>
+        <v>474.1548403012645</v>
       </c>
       <c r="X7" t="n">
-        <v>652.3991273773217</v>
+        <v>474.1548403012645</v>
       </c>
       <c r="Y7" t="n">
-        <v>429.2870661939651</v>
+        <v>390.1839609844599</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1285.397995218369</v>
+        <v>725.4487872611428</v>
       </c>
       <c r="C8" t="n">
-        <v>892.2224937212998</v>
+        <v>725.4487872611428</v>
       </c>
       <c r="D8" t="n">
-        <v>506.7813649379675</v>
+        <v>725.4487872611428</v>
       </c>
       <c r="E8" t="n">
-        <v>506.7813649379675</v>
+        <v>473.3297600431587</v>
       </c>
       <c r="F8" t="n">
-        <v>194.7724384806716</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>191.9627430103717</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>685.2830347289006</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M8" t="n">
-        <v>1231.283934773481</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N8" t="n">
-        <v>1759.095218410943</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O8" t="n">
-        <v>2199.134819303272</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
         <v>2365.64850507718</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>1937.641433863169</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U8" t="n">
-        <v>1681.888704297768</v>
+        <v>1886.395173071196</v>
       </c>
       <c r="V8" t="n">
-        <v>1681.888704297768</v>
+        <v>1886.395173071196</v>
       </c>
       <c r="W8" t="n">
-        <v>1681.888704297768</v>
+        <v>1515.396138039483</v>
       </c>
       <c r="X8" t="n">
-        <v>1681.888704297768</v>
+        <v>1125.94353297254</v>
       </c>
       <c r="Y8" t="n">
-        <v>1285.397995218369</v>
+        <v>1125.94353297254</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>443.7671209181044</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="L9" t="n">
-        <v>443.7671209181044</v>
+        <v>530.879055999857</v>
       </c>
       <c r="M9" t="n">
-        <v>1029.265125924707</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N9" t="n">
-        <v>1614.763130931309</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O9" t="n">
-        <v>2131.28341352229</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>854.2900019614187</v>
+        <v>491.519059600457</v>
       </c>
       <c r="C10" t="n">
-        <v>684.084884027408</v>
+        <v>491.519059600457</v>
       </c>
       <c r="D10" t="n">
-        <v>528.4517709299226</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="E10" t="n">
-        <v>372.8929587891251</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="F10" t="n">
-        <v>215.5670240020981</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="I10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>539.420211517574</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>491.519059600457</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>491.519059600457</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>491.519059600457</v>
       </c>
       <c r="Y10" t="n">
-        <v>948.7599926430961</v>
+        <v>491.519059600457</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1135.015795124459</v>
+        <v>2033.222718167679</v>
       </c>
       <c r="C11" t="n">
-        <v>1135.015795124459</v>
+        <v>1711.843491816803</v>
       </c>
       <c r="D11" t="n">
-        <v>1135.015795124459</v>
+        <v>1398.198638179665</v>
       </c>
       <c r="E11" t="n">
-        <v>804.2285453871973</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="F11" t="n">
-        <v>459.1303820633694</v>
+        <v>722.3132251185752</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527726</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654571</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5072,19 +5072,19 @@
         <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2675.578323579423</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V11" t="n">
-        <v>2405.267789429136</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="W11" t="n">
-        <v>2106.065029543617</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="X11" t="n">
-        <v>1788.408699622868</v>
+        <v>2357.921993658675</v>
       </c>
       <c r="Y11" t="n">
-        <v>1463.714265689662</v>
+        <v>2033.227559725469</v>
       </c>
     </row>
     <row r="12">
@@ -5118,16 +5118,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="L12" t="n">
-        <v>865.4243596646552</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M12" t="n">
-        <v>865.4243596646552</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N12" t="n">
         <v>1223.947919817482</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>347.7456042322044</v>
+        <v>558.6374311877007</v>
       </c>
       <c r="C13" t="n">
-        <v>249.3367614443876</v>
+        <v>460.2285883998838</v>
       </c>
       <c r="D13" t="n">
-        <v>249.3367614443876</v>
+        <v>376.3917504485926</v>
       </c>
       <c r="E13" t="n">
-        <v>165.5742244497839</v>
+        <v>292.6292134539891</v>
       </c>
       <c r="F13" t="n">
-        <v>165.5742244497839</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5742244497839</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774628</v>
+        <v>102.7129143774625</v>
       </c>
       <c r="K13" t="n">
         <v>254.915484758189</v>
@@ -5206,43 +5206,43 @@
         <v>489.4106539027734</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118221</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138159</v>
+        <v>999.6269248138161</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P13" t="n">
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="S13" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="T13" t="n">
-        <v>1280.705150907706</v>
+        <v>1332.809865128936</v>
       </c>
       <c r="U13" t="n">
-        <v>1067.062634295801</v>
+        <v>1119.167348517031</v>
       </c>
       <c r="V13" t="n">
-        <v>872.8795642628188</v>
+        <v>932.4556051811521</v>
       </c>
       <c r="W13" t="n">
-        <v>661.3454373401903</v>
+        <v>720.9214782585236</v>
       </c>
       <c r="X13" t="n">
-        <v>499.0613902693673</v>
+        <v>558.6374311877007</v>
       </c>
       <c r="Y13" t="n">
-        <v>347.7456042322044</v>
+        <v>558.6374311877007</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1688.124554843851</v>
+        <v>1435.837779556535</v>
       </c>
       <c r="C14" t="n">
-        <v>1366.745328492975</v>
+        <v>1114.45855320566</v>
       </c>
       <c r="D14" t="n">
-        <v>1053.100474855837</v>
+        <v>800.8136995685213</v>
       </c>
       <c r="E14" t="n">
-        <v>722.3132251185752</v>
+        <v>470.0264498312598</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3132251185752</v>
+        <v>470.0264498312598</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527722</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654569</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404059</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M14" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N14" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O14" t="n">
         <v>2572.923332933306</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3081.188650707686</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>2929.484323413296</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U14" t="n">
-        <v>2929.484323413296</v>
+        <v>2921.999930786569</v>
       </c>
       <c r="V14" t="n">
-        <v>2659.173789263008</v>
+        <v>2651.689396636281</v>
       </c>
       <c r="W14" t="n">
-        <v>2659.173789263008</v>
+        <v>2352.486636750763</v>
       </c>
       <c r="X14" t="n">
-        <v>2341.517459342259</v>
+        <v>2034.830306830013</v>
       </c>
       <c r="Y14" t="n">
-        <v>2016.823025409054</v>
+        <v>1764.536250121738</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>865.4243596646552</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M15" t="n">
-        <v>1493.196009291336</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N15" t="n">
-        <v>1863.93438008877</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O15" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,49 +5410,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>268.8305097821768</v>
+        <v>420.1462958193404</v>
       </c>
       <c r="C16" t="n">
-        <v>268.8305097821768</v>
+        <v>321.7374530315235</v>
       </c>
       <c r="D16" t="n">
-        <v>268.8305097821768</v>
+        <v>237.9006150802323</v>
       </c>
       <c r="E16" t="n">
-        <v>268.8305097821768</v>
+        <v>154.1380780856288</v>
       </c>
       <c r="F16" t="n">
-        <v>183.3008501413435</v>
+        <v>68.60841844479593</v>
       </c>
       <c r="G16" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774625</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.915484758189</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027733</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M16" t="n">
-        <v>746.069761511822</v>
+        <v>746.0697615118223</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138158</v>
+        <v>999.6269248138161</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P16" t="n">
-        <v>1422.942916173671</v>
+        <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
         <v>1496.732641814507</v>
@@ -5461,25 +5461,25 @@
         <v>1496.732641814507</v>
       </c>
       <c r="S16" t="n">
-        <v>1365.71283314325</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="T16" t="n">
-        <v>1201.790056457678</v>
+        <v>1201.790056457679</v>
       </c>
       <c r="U16" t="n">
-        <v>988.1475398457731</v>
+        <v>988.1475398457736</v>
       </c>
       <c r="V16" t="n">
-        <v>793.9644698127911</v>
+        <v>793.9644698127918</v>
       </c>
       <c r="W16" t="n">
-        <v>582.4303428901626</v>
+        <v>582.4303428901633</v>
       </c>
       <c r="X16" t="n">
-        <v>420.1462958193396</v>
+        <v>420.1462958193404</v>
       </c>
       <c r="Y16" t="n">
-        <v>268.8305097821768</v>
+        <v>420.1462958193404</v>
       </c>
     </row>
     <row r="17">
@@ -5498,34 +5498,34 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975451</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G17" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924219</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129444</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M17" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
@@ -5546,16 +5546,16 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573996</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
         <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443165</v>
@@ -5595,22 +5595,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L18" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M18" t="n">
-        <v>865.4243596646552</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229905</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222409</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960407</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343048</v>
       </c>
       <c r="N19" t="n">
-        <v>806.6193906797591</v>
+        <v>683.142663665514</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296498</v>
+        <v>845.8474307072221</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106228</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161894</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5735,16 +5735,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099311</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803428</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924219</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5756,13 +5756,13 @@
         <v>565.7512566404055</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5789,13 +5789,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1493.196009291336</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N21" t="n">
-        <v>1493.196009291336</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369568</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072661</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462912</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>67.69877031229825</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K22" t="n">
-        <v>149.5338114222401</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L22" t="n">
-        <v>313.6614512960399</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M22" t="n">
-        <v>499.953029634304</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879418</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296498</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106228</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476279</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161894</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
         <v>1352.560722599516</v>
@@ -5981,7 +5981,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6008,10 +6008,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S23" t="n">
         <v>3071.119566829236</v>
@@ -6023,7 +6023,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
         <v>2405.467337224691</v>
@@ -6032,7 +6032,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6075,16 +6075,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1606.310991511064</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N24" t="n">
-        <v>1740.468202408463</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>67.69877031229981</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>278.5901810446702</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>442.71782091847</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>629.009399256734</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879432</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296512</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6203,19 +6203,19 @@
         <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6236,13 +6236,13 @@
         <v>1988.523626565243</v>
       </c>
       <c r="N26" t="n">
-        <v>2609.386271932278</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O26" t="n">
-        <v>3049.425872824607</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P26" t="n">
-        <v>3397.613364956129</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q26" t="n">
         <v>3612.4284403795</v>
@@ -6303,25 +6303,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>607.4220014342354</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1235.193651060917</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6361,7 +6361,7 @@
         <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517125</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D28" t="n">
         <v>368.3732297414157</v>
@@ -6385,13 +6385,13 @@
         <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904117</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6446,13 +6446,13 @@
         <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218606</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390267</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142183</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6464,22 +6464,22 @@
         <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>700.0178648958355</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1286.389518343938</v>
       </c>
       <c r="M29" t="n">
         <v>1925.441780118092</v>
       </c>
       <c r="N29" t="n">
-        <v>2453.253063755554</v>
+        <v>2546.304425485127</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647883</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3427.582880238551</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6500,10 +6500,10 @@
         <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
         <v>2188.011670848361</v>
@@ -6540,22 +6540,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>73.36485894755026</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>556.9309448458635</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1184.702594472545</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="N30" t="n">
-        <v>1840.480565683104</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="O30" t="n">
-        <v>2357.000848274085</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P30" t="n">
         <v>2391.700393923186</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746018</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232841</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192015</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286452</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988166</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026483</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222129</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654424</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463663</v>
+        <v>904.3560533993075</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057087</v>
+        <v>601.3807258108106</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230764</v>
+        <v>302.1370811803392</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189321</v>
+        <v>91.97314162835488</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076161</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J32" t="n">
-        <v>319.47041387666</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>783.7258626311921</v>
+        <v>571.187264538635</v>
       </c>
       <c r="L32" t="n">
-        <v>1277.046154349721</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1823.047054394302</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2350.858338031764</v>
+        <v>2249.971860514189</v>
       </c>
       <c r="O32" t="n">
-        <v>2790.897938924092</v>
+        <v>2690.011461406518</v>
       </c>
       <c r="P32" t="n">
-        <v>3139.085431055614</v>
+        <v>3038.19895353804</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.34117404257</v>
+        <v>3334.696634253971</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038081</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908496</v>
+        <v>3325.16233593983</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397277</v>
+        <v>3215.580844380771</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.84221376124</v>
+        <v>3073.747225696895</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394122</v>
+        <v>2845.559527281939</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291774</v>
+        <v>2588.479603131752</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154196</v>
+        <v>2312.946108946334</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.37451074846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076161</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076161</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="K33" t="n">
-        <v>389.2866943029881</v>
+        <v>118.0461921907177</v>
       </c>
       <c r="L33" t="n">
-        <v>389.2866943029881</v>
+        <v>601.612278089031</v>
       </c>
       <c r="M33" t="n">
-        <v>809.9634606984599</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="N33" t="n">
-        <v>1465.741431909019</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1982.2617145</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2387.883083216398</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965122</v>
+        <v>365.6713676929706</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918661</v>
+        <v>309.3853606404853</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237455</v>
+        <v>267.6713584245254</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123126</v>
+        <v>226.0316571652532</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546502</v>
+        <v>182.6248332597515</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834604</v>
+        <v>128.2898902407225</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431906</v>
+        <v>86.73045008374181</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076161</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076161</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="K34" t="n">
-        <v>151.3825893507035</v>
+        <v>149.3901767122869</v>
       </c>
       <c r="L34" t="n">
-        <v>409.5369032805497</v>
+        <v>425.1699371610697</v>
       </c>
       <c r="M34" t="n">
-        <v>595.8284816188137</v>
+        <v>611.4615154993337</v>
       </c>
       <c r="N34" t="n">
-        <v>884.2912083770932</v>
+        <v>906.3032701055259</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145872</v>
+        <v>1145.033953152041</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649521</v>
+        <v>1264.91011892862</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746642</v>
+        <v>1379.984435873654</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308584</v>
+        <v>1370.002557387756</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420498</v>
+        <v>1281.105584451831</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518096</v>
+        <v>1159.30564350159</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689362</v>
+        <v>987.7859626250167</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395509</v>
+        <v>835.7257283273664</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000931</v>
+        <v>666.3144371400693</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124409</v>
+        <v>546.1532258045778</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584488</v>
+        <v>436.9602755027465</v>
       </c>
     </row>
     <row r="35">
@@ -6917,67 +6917,67 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924241</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411557</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129464</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404082</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L35" t="n">
-        <v>1059.071548358937</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M35" t="n">
-        <v>1605.072448403518</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N35" t="n">
-        <v>2132.88373204098</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O35" t="n">
-        <v>2572.923332933308</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.11082506483</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205779</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205779</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829238</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.295701071062</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573996</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224692</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443166</v>
@@ -7008,31 +7008,31 @@
         <v>199.803798091603</v>
       </c>
       <c r="H36" t="n">
-        <v>111.506381692204</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411557</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411557</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>865.4243596646552</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885605</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C37" t="n">
-        <v>197.403597936958</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218811</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634919</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588732</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072704</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462935</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411557</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411557</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O37" t="n">
         <v>969.3241577214669</v>
@@ -7117,28 +7117,28 @@
         <v>1092.622519868096</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476282</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.06281534124</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918825</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161919</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194244</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330104</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984018</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974534</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>1614.059487414178</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498593</v>
@@ -7166,13 +7166,13 @@
         <v>261.1858216803435</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924238</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411557</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J38" t="n">
-        <v>206.7689006129437</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K38" t="n">
         <v>565.7512566404055</v>
@@ -7196,28 +7196,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205779</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829238</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.295701071062</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573997</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224693</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840158</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443167</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="39">
@@ -7245,10 +7245,10 @@
         <v>199.803798091603</v>
       </c>
       <c r="H39" t="n">
-        <v>111.506381692204</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>62.11912770411557</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
         <v>175.2341099238429</v>
@@ -7260,16 +7260,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>978.5393418843826</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885603</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369578</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218809</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634918</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588731</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072698</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462933</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411557</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411557</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>437.1381783102856</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>629.0093992567354</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879445</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296525</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106231</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.202162476282</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.202162476282</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.06281534124</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918822</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161915</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194241</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330101</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984015</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974532</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7385,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924233</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411557</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7689006129437</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K41" t="n">
         <v>565.7512566404055</v>
@@ -7433,16 +7433,16 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205779</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829238</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.295701071062</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
         <v>2644.789635573995</v>
@@ -7451,10 +7451,10 @@
         <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="42">
@@ -7482,31 +7482,31 @@
         <v>199.803798091603</v>
       </c>
       <c r="H42" t="n">
-        <v>111.506381692204</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411557</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411557</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>865.4243596646552</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885599</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634916</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072687</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462927</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411557</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411557</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
         <v>143.9541688140574</v>
@@ -7582,37 +7582,37 @@
         <v>677.5630210573304</v>
       </c>
       <c r="O43" t="n">
-        <v>967.2827903862346</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P43" t="n">
-        <v>1087.158956162813</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q43" t="n">
-        <v>1090.581152532864</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R43" t="n">
         <v>1098.202162476281</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918815</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161908</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194235</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330095</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X43" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974528</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D44" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G44" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924229</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7670,7 +7670,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S44" t="n">
         <v>3071.119566829235</v>
@@ -7685,7 +7685,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X44" t="n">
         <v>2147.691468840156</v>
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>865.4243596646552</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>161.4017547291065</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>243.2367958390484</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>442.7178209184705</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>629.0093992567345</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879436</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296516</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161907</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X46" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
   </sheetData>
@@ -7979,25 +7979,25 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321642</v>
+        <v>668.5156360519575</v>
       </c>
       <c r="N2" t="n">
-        <v>575.4067826843226</v>
+        <v>667.9090757920144</v>
       </c>
       <c r="O2" t="n">
-        <v>149.5638374240964</v>
+        <v>159.1611234709529</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,28 +8055,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>617.8294824328053</v>
+        <v>611.1777065035421</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886036</v>
+        <v>604.1626973083969</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>611.4781433431192</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>96.46212172154242</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,25 +8213,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>186.9664330399947</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321642</v>
+        <v>668.5156360519575</v>
       </c>
       <c r="N5" t="n">
-        <v>564.5028797591308</v>
+        <v>667.9090757920144</v>
       </c>
       <c r="O5" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8292,22 +8292,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>330.4974637696131</v>
+        <v>373.9928913645778</v>
       </c>
       <c r="M6" t="n">
         <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886036</v>
+        <v>604.1626973083969</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431192</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8450,16 +8450,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>301.2346582324079</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8468,7 +8468,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>318.4970894367924</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8529,13 +8529,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>375.7981157341752</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
         <v>683.7992483186069</v>
@@ -8547,10 +8547,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>235.8239269133934</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8766,10 +8766,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>105.1563108732267</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
@@ -8778,7 +8778,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N12" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -9003,28 +9003,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>459.8553156798577</v>
+        <v>709.3350389104421</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9243,16 +9243,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>447.5171231095475</v>
+        <v>373.1055958271594</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9261,7 +9261,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9404,7 +9404,7 @@
         <v>505.666843611017</v>
       </c>
       <c r="L20" t="n">
-        <v>651.5514946987036</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M20" t="n">
         <v>701.2411122488187</v>
@@ -9413,7 +9413,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O20" t="n">
-        <v>594.0482827698827</v>
+        <v>594.0482827698837</v>
       </c>
       <c r="P20" t="n">
         <v>502.0059847475129</v>
@@ -9477,7 +9477,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9486,19 +9486,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>577.006990218999</v>
       </c>
       <c r="N21" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
-        <v>342.4574509263909</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9723,19 +9723,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>577.006990218999</v>
       </c>
       <c r="N24" t="n">
-        <v>220.8844470939643</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9951,16 +9951,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>306.5431715280886</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>577.0069902189987</v>
       </c>
       <c r="N27" t="n">
         <v>85.37211285416666</v>
@@ -9972,7 +9972,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10188,25 +10188,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>577.0069902189987</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
         <v>90.98815315591399</v>
@@ -10428,16 +10428,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>140.5980025943158</v>
       </c>
       <c r="L33" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>517.3131487114047</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10446,7 +10446,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>263.7907196684378</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K35" t="n">
         <v>505.666843611017</v>
@@ -10662,7 +10662,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
@@ -10671,10 +10671,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>577.006990218999</v>
       </c>
       <c r="N36" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10683,7 +10683,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10908,10 +10908,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>577.006990218999</v>
       </c>
       <c r="N39" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -10920,7 +10920,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,7 +11136,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
@@ -11145,10 +11145,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>577.006990218999</v>
       </c>
       <c r="N42" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11157,7 +11157,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,7 +11373,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
@@ -11382,10 +11382,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>577.006990218999</v>
       </c>
       <c r="N45" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -11394,7 +11394,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>325.406692717339</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873668</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>260.551014624654</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23315,10 +23315,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096564</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.9984695717785</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442488</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681701</v>
+        <v>95.49320096681694</v>
       </c>
       <c r="H13" t="n">
-        <v>41.11007606973833</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901683</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>7.396613430132334</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>69.2500499605183</v>
+        <v>93.77010711362797</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750155</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>53.85637345268095</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096564</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993876</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177849</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.9249116246576</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>36.20846446852205</v>
+        <v>89.06880313354334</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338904</v>
+        <v>82.84545313338899</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456092</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901689</v>
+        <v>51.58366707901683</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-2.030763553156297e-15</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-1.989519660128281e-12</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1010109.051719431</v>
+        <v>1008605.182685031</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1010109.051719431</v>
+        <v>1008605.182685031</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>909124.2891101063</v>
+        <v>909124.2891101064</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1020282.008855575</v>
+        <v>1020282.008855574</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1020282.008855574</v>
+        <v>1020282.008855575</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1020282.008855575</v>
+        <v>1020282.008855574</v>
       </c>
     </row>
     <row r="14">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>306564.7027587068</v>
+        <v>306564.7027587064</v>
       </c>
       <c r="C2" t="n">
-        <v>306564.7027587066</v>
+        <v>306564.7027587064</v>
       </c>
       <c r="D2" t="n">
-        <v>306564.7027587066</v>
+        <v>306564.7027587067</v>
       </c>
       <c r="E2" t="n">
-        <v>270910.3398214812</v>
+        <v>270910.3398214813</v>
       </c>
       <c r="F2" t="n">
         <v>270910.3398214811</v>
@@ -26329,28 +26329,28 @@
         <v>306564.7027587065</v>
       </c>
       <c r="H2" t="n">
-        <v>306564.7027587063</v>
+        <v>306564.7027587064</v>
       </c>
       <c r="I2" t="n">
         <v>306564.7027587065</v>
       </c>
       <c r="J2" t="n">
+        <v>306564.7027587065</v>
+      </c>
+      <c r="K2" t="n">
         <v>306564.7027587066</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>306564.7027587066</v>
+      </c>
+      <c r="M2" t="n">
         <v>306564.7027587065</v>
-      </c>
-      <c r="L2" t="n">
-        <v>306564.7027587063</v>
-      </c>
-      <c r="M2" t="n">
-        <v>306564.7027587064</v>
       </c>
       <c r="N2" t="n">
         <v>306564.7027587065</v>
       </c>
       <c r="O2" t="n">
-        <v>306564.7027587064</v>
+        <v>306564.7027587065</v>
       </c>
       <c r="P2" t="n">
         <v>306564.7027587064</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918558</v>
+        <v>173858.657034055</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062197</v>
+        <v>22558.42953401358</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740445</v>
+        <v>112122.5614740446</v>
       </c>
       <c r="F3" t="n">
-        <v>1.13686837721616e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668202</v>
+        <v>47425.32553668193</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945025</v>
+        <v>200285.8640399293</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728566</v>
+        <v>62456.24177539686</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962298</v>
+        <v>43252.52447081111</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277127</v>
+        <v>27767.69404277121</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>221554.6110489512</v>
+        <v>226762.9162907736</v>
       </c>
       <c r="C4" t="n">
-        <v>221554.6110489512</v>
+        <v>226762.9162907736</v>
       </c>
       <c r="D4" t="n">
         <v>211575.8953047903</v>
       </c>
       <c r="E4" t="n">
-        <v>138605.9604845213</v>
+        <v>138605.9604845214</v>
       </c>
       <c r="F4" t="n">
-        <v>138605.9604845213</v>
+        <v>138605.9604845214</v>
       </c>
       <c r="G4" t="n">
+        <v>186364.8769761035</v>
+      </c>
+      <c r="H4" t="n">
+        <v>186364.8769761035</v>
+      </c>
+      <c r="I4" t="n">
         <v>186364.8769761036</v>
-      </c>
-      <c r="H4" t="n">
-        <v>186364.8769761036</v>
-      </c>
-      <c r="I4" t="n">
-        <v>186364.8769761035</v>
       </c>
       <c r="J4" t="n">
         <v>187115.3694404867</v>
@@ -26445,16 +26445,16 @@
         <v>187115.3694404867</v>
       </c>
       <c r="L4" t="n">
-        <v>186859.7955400033</v>
+        <v>186726.4009309486</v>
       </c>
       <c r="M4" t="n">
         <v>186364.8769761035</v>
       </c>
       <c r="N4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
       <c r="O4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
       <c r="P4" t="n">
         <v>186364.8769761035</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,31 +26485,31 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551968</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.04525391951</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.19813315422</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551968</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551969</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551969</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551967</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-163879.157722114</v>
+        <v>-159226.9381009394</v>
       </c>
       <c r="C6" t="n">
-        <v>18325.79056974166</v>
+        <v>14631.71893311561</v>
       </c>
       <c r="D6" t="n">
-        <v>10581.20986612112</v>
+        <v>2844.920642729645</v>
       </c>
       <c r="E6" t="n">
-        <v>-33004.20183692512</v>
+        <v>-33213.93338361479</v>
       </c>
       <c r="F6" t="n">
-        <v>79118.35963711928</v>
+        <v>78908.6280904296</v>
       </c>
       <c r="G6" t="n">
-        <v>14604.73093040125</v>
+        <v>14604.73093040136</v>
       </c>
       <c r="H6" t="n">
-        <v>62030.05646708304</v>
+        <v>62030.05646708322</v>
       </c>
       <c r="I6" t="n">
-        <v>62030.05646708334</v>
+        <v>62030.05646708322</v>
       </c>
       <c r="J6" t="n">
-        <v>-151011.8611302021</v>
+        <v>-144495.5759756289</v>
       </c>
       <c r="K6" t="n">
-        <v>55790.28806430028</v>
+        <v>55790.28806430042</v>
       </c>
       <c r="L6" t="n">
-        <v>607.6991296788547</v>
+        <v>-3441.138080793055</v>
       </c>
       <c r="M6" t="n">
-        <v>19829.22700746029</v>
+        <v>18777.53199627216</v>
       </c>
       <c r="N6" t="n">
-        <v>62030.05646708331</v>
+        <v>62030.05646708328</v>
       </c>
       <c r="O6" t="n">
-        <v>34262.3624243119</v>
+        <v>34262.3624243121</v>
       </c>
       <c r="P6" t="n">
-        <v>62030.05646708338</v>
+        <v>62030.05646708322</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,25 +26707,25 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M2" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.695742434437</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="C4" t="n">
-        <v>543.695742434437</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26808,28 +26808,28 @@
         <v>776.4890963014442</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="J4" t="n">
         <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095202</v>
+        <v>844.4391950293134</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014446</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014446</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014446</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085253</v>
+        <v>59.28165692085241</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,25 +26929,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>34.70961755346404</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>78.07030221924607</v>
+      </c>
+      <c r="M2" t="n">
+        <v>17.58004954287424</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.842170943040401e-14</v>
+      </c>
+      <c r="O2" t="n">
         <v>34.70961755346401</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>71.62683974660708</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.02351201551323</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>34.70961755346408</v>
-      </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.695742434437</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485811</v>
+        <v>72.6215418150648</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773711</v>
+        <v>659.3622249971643</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407345</v>
+        <v>117.1268713042797</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085253</v>
+        <v>59.28165692085241</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346401</v>
+        <v>34.70961755346404</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.695742434437</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485811</v>
+        <v>72.6215418150648</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
@@ -27388,13 +27388,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>178.5532673263479</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -27445,7 +27445,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>271.6950026702171</v>
       </c>
     </row>
     <row r="3">
@@ -27461,16 +27461,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>61.99025433061712</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27515,7 +27515,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>19.46023144203872</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>55.66492997316341</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>11.74070931870713</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27619,13 +27619,13 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>83.40359626133682</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>93.6392740492627</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -27679,7 +27679,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27707,10 +27707,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>60.83386691136789</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>27.91849938627044</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
@@ -27792,7 +27792,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
@@ -27831,16 +27831,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>222.6184980295851</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>137.7497700478865</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>148.9598526888166</v>
       </c>
       <c r="F8" t="n">
-        <v>103.836656892599</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>89.83064772952768</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
@@ -28065,10 +28065,10 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>215.8974113294382</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="K13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="L13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="M13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="N13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="O13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="P13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="R13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="S13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="17">
@@ -28743,7 +28743,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668788</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28755,16 +28755,16 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O19" t="n">
-        <v>5.636002634527898</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
@@ -28980,7 +28980,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>35.71049010668707</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -28992,19 +28992,19 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
+        <v>28.01250026485255</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29074,7 +29074,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -29217,25 +29217,25 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>35.71049010668865</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>30.27223765901232</v>
       </c>
       <c r="Q26" t="n">
-        <v>30.27223765901226</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431636</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29536,16 +29536,16 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901209</v>
       </c>
       <c r="L29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>30.27223765901272</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -29554,7 +29554,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>93.99127447431646</v>
@@ -29746,34 +29746,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -29782,7 +29782,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -29791,31 +29791,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>86.27291196566432</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="R32" t="n">
-        <v>106.336457300071</v>
+        <v>81.10808140893155</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="33">
@@ -29904,28 +29904,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
@@ -29934,46 +29934,46 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>94.97643844045098</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="O34" t="n">
-        <v>106.336457300071</v>
+        <v>76.79385455031013</v>
       </c>
       <c r="P34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C35" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D35" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E35" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F35" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G35" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H35" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I35" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T35" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U35" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V35" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W35" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X35" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y35" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C37" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D37" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E37" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F37" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G37" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H37" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I37" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
         <v>30.07448747215907</v>
@@ -30171,7 +30171,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30180,7 +30180,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>130.3599693155842</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>128.2979821082802</v>
+        <v>128.2979821082783</v>
       </c>
       <c r="S37" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T37" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U37" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V37" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W37" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X37" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733557</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="39">
@@ -30378,46 +30378,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>5.636002634531025</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>128.2979821082778</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="S40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733557</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
         <v>30.07448747215907</v>
@@ -30654,37 +30654,37 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>128.297982108279</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>128.2979821082783</v>
       </c>
       <c r="R43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="S43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="45">
@@ -30852,43 +30852,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>130.3599693155843</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>35.71049010668918</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
   </sheetData>
@@ -34699,25 +34699,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.695742434437</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="N2" t="n">
-        <v>426.2882913465385</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>9.597286046856526</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>525.4423603834935</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="N3" t="n">
-        <v>543.695742434437</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>9.378756902227758</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>33.71826330950304</v>
       </c>
       <c r="M5" t="n">
-        <v>543.695742434437</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="N5" t="n">
-        <v>415.3843884213467</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35012,22 +35012,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>240.4371169126948</v>
+        <v>283.9325445076595</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>543.695742434437</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35170,16 +35170,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>151.5096066346806</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35188,7 +35188,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>168.1956421958672</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>286.2011804008418</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
         <v>591.4121262692951</v>
@@ -35267,10 +35267,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>148.7405620940788</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>22.71185353989334</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
@@ -35498,7 +35498,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257283</v>
+        <v>41.0038249225729</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L13" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M13" t="n">
-        <v>259.2516238475238</v>
+        <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318107</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P13" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488438</v>
+        <v>74.53507640488445</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>374.483202825691</v>
+        <v>623.9629260562755</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257284</v>
+        <v>41.0038249225729</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O16" t="n">
         <v>235.4265619318108</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488439</v>
+        <v>74.53507640488445</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,16 +35963,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>362.1450102553808</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -35981,7 +35981,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>5.636002634528808</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
@@ -36051,16 +36051,16 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>315.4000036905433</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>169.9842521716068</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L20" t="n">
-        <v>498.3033249682118</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M20" t="n">
         <v>551.5160606510915</v>
@@ -36133,7 +36133,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457873</v>
       </c>
       <c r="P20" t="n">
         <v>351.7045375065877</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36206,19 +36206,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>249.769892037502</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.636002634527997</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
@@ -36288,7 +36288,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>315.4000036905433</v>
+        <v>213.0525346398113</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
@@ -36300,7 +36300,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36370,7 +36370,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O23" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457873</v>
       </c>
       <c r="P23" t="n">
         <v>351.7045375065877</v>
@@ -36443,19 +36443,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="N24" t="n">
-        <v>135.5123342397976</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>5.636002634529582</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>213.0216270023943</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36525,13 +36525,13 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724872</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004055</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
@@ -36604,19 +36604,19 @@
         <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>381.9767751656</v>
       </c>
       <c r="Q26" t="n">
-        <v>216.9849246700714</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698319</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>216.4828246711704</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>484.6198681696868</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36692,7 +36692,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6529321611264</v>
+        <v>176.6529321611263</v>
       </c>
       <c r="L28" t="n">
         <v>259.7767692963365</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,16 +36832,16 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>392.8806780907917</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>581.7882983101042</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
         <v>444.4844453457863</v>
@@ -36850,7 +36850,7 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
         <v>56.37828989698318</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>484.6198681696868</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>252.44733902616</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318506</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
@@ -37078,7 +37078,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449111</v>
+        <v>645.9226305176212</v>
       </c>
       <c r="O32" t="n">
         <v>444.4844453457863</v>
@@ -37087,10 +37087,10 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>272.9855989767235</v>
+        <v>299.4926067837692</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273772</v>
+        <v>43.49509683159827</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>51.00106726098245</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>424.9260266620928</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37166,7 +37166,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37230,22 +37230,22 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>260.761933262471</v>
+        <v>278.5654145947301</v>
       </c>
       <c r="M34" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750298</v>
+        <v>297.8199541476689</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371499</v>
+        <v>241.142104087389</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380292</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102235</v>
+        <v>116.2366837828626</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>146.1108817260917</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K35" t="n">
         <v>362.6084404317796</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
@@ -37391,10 +37391,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="N36" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37403,7 +37403,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
@@ -37476,7 +37476,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>294.7082188526631</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>5.636002634531391</v>
+        <v>5.636002634529554</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R38" t="n">
-        <v>2.296703792355879e-12</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,10 +37628,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="N39" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37640,7 +37640,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>213.0216270023942</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>193.809314087323</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>292.6462316453567</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R41" t="n">
-        <v>2.296703792355879e-12</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
@@ -37865,10 +37865,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="N42" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37877,7 +37877,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37950,16 +37950,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>292.6462316453578</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.456764010152483</v>
+        <v>131.7547461184307</v>
       </c>
       <c r="R43" t="n">
-        <v>7.697989841835522</v>
+        <v>7.69798984183555</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
         <v>322.9688344062893</v>
@@ -38102,10 +38102,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="N45" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38114,7 +38114,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>201.4959849287092</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N46" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094878</v>
       </c>
       <c r="O46" t="n">
         <v>164.3482495370789</v>
